--- a/list_5.xlsx
+++ b/list_5.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3507,11 +3507,21 @@
       <c r="C118" t="n">
         <v>2052888</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1476884</v>
+      </c>
+      <c r="E118" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F118" t="n">
+        <v>85659272000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>25654452004000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.3300000131130219</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3528,6 +3538,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6975312</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3540,7 +3566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6616,11 +6642,21 @@
       <c r="C118" t="n">
         <v>1478832</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>171868</v>
+      </c>
+      <c r="E118" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F118" t="n">
+        <v>43912274000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>40075849009000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6637,6 +6673,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1321294</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6649,7 +6701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9725,11 +9777,21 @@
       <c r="C118" t="n">
         <v>36328</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>68199</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F118" t="n">
+        <v>29291470500</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2612494739000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9747,6 +9809,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>430500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29754</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_5.xlsx
+++ b/list_5.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5561,11 +5561,21 @@
       <c r="C197" t="n">
         <v>2234207</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>1973282</v>
+      </c>
+      <c r="E197" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F197" t="n">
+        <v>116423638000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>26096770142000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.449999988079071</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5582,6 +5592,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2592815</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5594,7 +5620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10724,11 +10750,21 @@
       <c r="C197" t="n">
         <v>2033710</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>270460</v>
+      </c>
+      <c r="E197" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F197" t="n">
+        <v>65586550000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>38036764715000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.1700000017881393</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10745,6 +10781,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>251000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1317125</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10757,7 +10809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15887,11 +15939,21 @@
       <c r="C197" t="n">
         <v>51855</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>58612</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25466914000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2642907949000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.9599999785423279</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15909,6 +15971,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>433000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29209</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_5.xlsx
+++ b/list_5.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5587,11 +5587,21 @@
       <c r="C198" t="n">
         <v>1101507</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>2090199</v>
+      </c>
+      <c r="E198" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F198" t="n">
+        <v>123739780800</v>
+      </c>
+      <c r="G198" t="n">
+        <v>26185233769600</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.4699999988079071</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5608,6 +5618,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5180787</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5620,7 +5646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10776,11 +10802,21 @@
       <c r="C198" t="n">
         <v>1005395</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>267714</v>
+      </c>
+      <c r="E198" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F198" t="n">
+        <v>66125358000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>38742601586000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1700000017881393</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10797,6 +10833,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>253000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>908952</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10809,7 +10861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15965,11 +16017,21 @@
       <c r="C198" t="n">
         <v>28172</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>58741</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25199889000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2609453418000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9700000286102295</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15987,6 +16049,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>439000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>33827</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_5.xlsx
+++ b/list_5.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5613,11 +5613,21 @@
       <c r="C199" t="n">
         <v>2592815</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>2115442</v>
+      </c>
+      <c r="E199" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F199" t="n">
+        <v>128830417800</v>
+      </c>
+      <c r="G199" t="n">
+        <v>26937174604200</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.4799999892711639</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5627,13 +5637,29 @@
         <v>63700</v>
       </c>
       <c r="C200" t="n">
-        <v>5180787</v>
+        <v>5224554</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11862342</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5646,7 +5672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10828,11 +10854,21 @@
       <c r="C199" t="n">
         <v>1317125</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>210404</v>
+      </c>
+      <c r="E199" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F199" t="n">
+        <v>52811404000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>39370012138000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1299999952316284</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10849,6 +10885,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>265000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2466385</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10861,7 +10913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16043,11 +16095,21 @@
       <c r="C199" t="n">
         <v>29209</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>56719</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F199" t="n">
+        <v>24559327000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2633783986000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.9300000071525574</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16065,6 +16127,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>434500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>29561</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
